--- a/tests_dt=0.008.xlsx
+++ b/tests_dt=0.008.xlsx
@@ -8,13 +8,14 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test_kdl_parser" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="tests_dt=0.008" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="test_kdl_parser" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -29,7 +30,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">qdd</t>
+    <t xml:space="preserve">qd</t>
   </si>
   <si>
     <t xml:space="preserve">delta_coriolis_vector</t>
@@ -142,8 +143,8 @@
   </sheetPr>
   <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -416,7 +417,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>5.00679016113281E-005</v>
+        <v>4.9591064453125E-005</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,7 +687,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>5.76972961425781E-005</v>
+        <v>7.84397125244141E-005</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,7 +957,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>5.62667846679688E-005</v>
+        <v>7.62939453125E-005</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,7 +1227,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
-        <v>5.55515289306641E-005</v>
+        <v>7.48634338378906E-005</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,7 +1497,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>5.57899475097656E-005</v>
+        <v>8.72611999511719E-005</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,7 +1767,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
-        <v>6.15119934082031E-005</v>
+        <v>9.36985015869141E-005</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,7 +2037,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
-        <v>7.77244567871094E-005</v>
+        <v>0.000148773193359375</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,7 +2307,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
-        <v>8.94069671630859E-005</v>
+        <v>0.000150918960571289</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,7 +2577,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
-        <v>0.000132322311401367</v>
+        <v>0.000220537185668945</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,7 +2847,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
-        <v>0.000131368637084961</v>
+        <v>0.000257253646850586</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2856,11 +2857,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2877,13 +2878,42 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.09"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/tests_dt=0.008.xlsx
+++ b/tests_dt=0.008.xlsx
@@ -9,13 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="tests_dt=0.008" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="test_kdl_parser" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -149,10 +147,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -417,7 +416,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>4.9591064453125E-005</v>
+        <v>4.98294830322266E-005</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -488,22 +487,22 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>0.123315069</v>
+        <v>-0.017073332</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>-0.014459109</v>
+        <v>0.002871653</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.003112808</v>
+        <v>0.003153936</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.012366673</v>
+        <v>-6.6927E-005</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0.004758007</v>
+        <v>0.002378789</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>-0.000308546</v>
+        <v>-0.000154307</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>1</v>
@@ -544,22 +543,22 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>4.375294195</v>
+        <v>-0.000815178</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.006441765</v>
+        <v>0.002249842</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.003173807</v>
+        <v>0.000615875</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.001939577</v>
+        <v>-1.22E-006</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>-0.253164799</v>
+        <v>5.79E-005</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>-3.29E-006</v>
+        <v>-2.467E-006</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>1</v>
@@ -567,22 +566,22 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>0.006441765</v>
+        <v>0.002249842</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>3.965492619</v>
+        <v>-0.000209349</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1.516035663</v>
+        <v>-0.000132578</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.240988571</v>
+        <v>-8.8367E-005</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1.068E-006</v>
+        <v>8.01E-007</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.017135925</v>
+        <v>-4.11E-007</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>1</v>
@@ -590,22 +589,22 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>0.003173807</v>
+        <v>0.000615875</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1.516035663</v>
+        <v>-0.000132578</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.836705645</v>
+        <v>-5.5807E-005</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.241109502</v>
+        <v>-2.7904E-005</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1.068E-006</v>
+        <v>8.01E-007</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.017135925</v>
+        <v>-4.11E-007</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>1</v>
@@ -613,22 +612,22 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>0.001939577</v>
+        <v>-1.22E-006</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.240988571</v>
+        <v>-8.8367E-005</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.241109502</v>
+        <v>-2.7904E-005</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.241165309</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1.068E-006</v>
+        <v>8.01E-007</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.017135925</v>
+        <v>-4.11E-007</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>1</v>
@@ -636,19 +635,19 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>-0.253164799</v>
+        <v>5.79E-005</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1.068E-006</v>
+        <v>8.01E-007</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>1.068E-006</v>
+        <v>8.01E-007</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>1.068E-006</v>
+        <v>8.01E-007</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>0.253240932</v>
+        <v>-8.01E-007</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
@@ -659,22 +658,22 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>-3.29E-006</v>
+        <v>-2.467E-006</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.017135925</v>
+        <v>-4.11E-007</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.017135925</v>
+        <v>-4.11E-007</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.017135925</v>
+        <v>-4.11E-007</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.017136473</v>
+        <v>0</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>1</v>
@@ -687,7 +686,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>7.84397125244141E-005</v>
+        <v>0.000123262405395508</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,22 +757,22 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>0.106250275</v>
+        <v>-0.017064794</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>-0.011589473</v>
+        <v>0.002869637</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0.006264241</v>
+        <v>0.003151433</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.012298259</v>
+        <v>-6.8415E-005</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>0.007135935</v>
+        <v>0.002377927</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>-0.000462987</v>
+        <v>-0.000154441</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>1</v>
@@ -814,22 +813,22 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>4.374168365</v>
+        <v>-0.00112583</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.008690663</v>
+        <v>0.002248899</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.003788791</v>
+        <v>0.000614985</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0.001937546</v>
+        <v>-2.031E-006</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>-0.253068311</v>
+        <v>9.6489E-005</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>-7.401E-006</v>
+        <v>-4.111E-006</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>1</v>
@@ -837,22 +836,22 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>0.008690663</v>
+        <v>0.002248899</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>3.965261545</v>
+        <v>-0.000231074</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>1.515892224</v>
+        <v>-0.00014344</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0.240900212</v>
+        <v>-8.8358E-005</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>2.402E-006</v>
+        <v>1.335E-006</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0.017135239</v>
+        <v>-6.85E-007</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>1</v>
@@ -860,22 +859,22 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>0.003788791</v>
+        <v>0.000614985</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>1.515892224</v>
+        <v>-0.00014344</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>0.83664984</v>
+        <v>-5.5805E-005</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0.241081599</v>
+        <v>-2.7903E-005</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>2.402E-006</v>
+        <v>1.335E-006</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0.017135239</v>
+        <v>-6.85E-007</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>1</v>
@@ -883,22 +882,22 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>0.001937546</v>
+        <v>-2.031E-006</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.240900212</v>
+        <v>-8.8358E-005</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0.241081599</v>
+        <v>-2.7903E-005</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0.24116531</v>
+        <v>0</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>2.402E-006</v>
+        <v>1.335E-006</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0.017135239</v>
+        <v>-6.85E-007</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>1</v>
@@ -906,19 +905,19 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>-0.253068311</v>
+        <v>9.6489E-005</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>2.402E-006</v>
+        <v>1.335E-006</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>2.402E-006</v>
+        <v>1.335E-006</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>2.402E-006</v>
+        <v>1.335E-006</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>0.253239597</v>
+        <v>-1.335E-006</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>0</v>
@@ -929,22 +928,22 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>-7.401E-006</v>
+        <v>-4.111E-006</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.017135239</v>
+        <v>-6.85E-007</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>0.017135239</v>
+        <v>-6.85E-007</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0.017135239</v>
+        <v>-6.85E-007</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0.017136473</v>
+        <v>0</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>1</v>
@@ -957,7 +956,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>7.62939453125E-005</v>
+        <v>8.20159912109375E-005</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,22 +1027,22 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>0.089198719</v>
+        <v>-0.017051556</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>-0.008722822</v>
+        <v>0.002866651</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>0.009412412</v>
+        <v>0.003148171</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>0.012228062</v>
+        <v>-7.0196E-005</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>0.009512571</v>
+        <v>0.002376636</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>-0.000617629</v>
+        <v>-0.000154642</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>1</v>
@@ -1084,22 +1083,22 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
-        <v>4.372732179</v>
+        <v>-0.001436185</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0.010938556</v>
+        <v>0.002247892</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>0.004402848</v>
+        <v>0.000614057</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0.001934706</v>
+        <v>-2.841E-006</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>-0.252933249</v>
+        <v>0.000135061</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>-1.3155E-005</v>
+        <v>-5.754E-006</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>1</v>
@@ -1107,22 +1106,22 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
-        <v>0.010938556</v>
+        <v>0.002247892</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>3.965008756</v>
+        <v>-0.000252789</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>1.515737928</v>
+        <v>-0.000154296</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0.240811867</v>
+        <v>-8.8345E-005</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>4.271E-006</v>
+        <v>1.868E-006</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>0.01713428</v>
+        <v>-9.6E-007</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>1</v>
@@ -1130,22 +1129,22 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
-        <v>0.004402848</v>
+        <v>0.000614057</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>1.515737928</v>
+        <v>-0.000154296</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>0.836594038</v>
+        <v>-5.5802E-005</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>0.241053698</v>
+        <v>-2.7901E-005</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>4.271E-006</v>
+        <v>1.868E-006</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>0.01713428</v>
+        <v>-9.6E-007</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>1</v>
@@ -1153,22 +1152,22 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
-        <v>0.001934706</v>
+        <v>-2.841E-006</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0.240811867</v>
+        <v>-8.8345E-005</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>0.241053698</v>
+        <v>-2.7901E-005</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>0.24116531</v>
+        <v>1E-009</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>4.271E-006</v>
+        <v>1.868E-006</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>0.01713428</v>
+        <v>-9.6E-007</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>1</v>
@@ -1176,19 +1175,19 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
-        <v>-0.252933249</v>
+        <v>0.000135061</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>4.271E-006</v>
+        <v>1.868E-006</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>4.271E-006</v>
+        <v>1.868E-006</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>4.271E-006</v>
+        <v>1.868E-006</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>0.253237729</v>
+        <v>-1.869E-006</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>0</v>
@@ -1199,22 +1198,22 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
-        <v>-1.3155E-005</v>
+        <v>-5.754E-006</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0.01713428</v>
+        <v>-9.6E-007</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>0.01713428</v>
+        <v>-9.6E-007</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>0.01713428</v>
+        <v>-9.6E-007</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>0.017136473</v>
+        <v>0</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>1</v>
@@ -1227,7 +1226,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
-        <v>7.48634338378906E-005</v>
+        <v>8.08238983154297E-005</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,22 +1297,22 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
-        <v>0.072165093</v>
+        <v>-0.017033626</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>-0.005860124</v>
+        <v>0.002862697</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0.012556563</v>
+        <v>0.003144151</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>0.012155791</v>
+        <v>-7.2271E-005</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>0.011887485</v>
+        <v>0.002374914</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>-0.000772538</v>
+        <v>-0.000154909</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>1</v>
@@ -1354,22 +1353,22 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
-        <v>4.370986016</v>
+        <v>-0.001746164</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0.013185379</v>
+        <v>0.002246824</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>0.005015941</v>
+        <v>0.000613093</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>0.001931059</v>
+        <v>-3.647E-006</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>-0.252759639</v>
+        <v>0.000173611</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>-2.055E-005</v>
+        <v>-7.395E-006</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>1</v>
@@ -1377,22 +1376,22 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
-        <v>0.013185379</v>
+        <v>0.002246824</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>3.964734262</v>
+        <v>-0.000274494</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>1.515572782</v>
+        <v>-0.000165146</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0.24072354</v>
+        <v>-8.8327E-005</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>6.672E-006</v>
+        <v>2.401E-006</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>0.017133046</v>
+        <v>-1.234E-006</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>1</v>
@@ -1400,22 +1399,22 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
-        <v>0.005015941</v>
+        <v>0.000613093</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1.515572782</v>
+        <v>-0.000165146</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0.83653824</v>
+        <v>-5.5798E-005</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>0.2410258</v>
+        <v>-2.7898E-005</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>6.672E-006</v>
+        <v>2.401E-006</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>0.017133046</v>
+        <v>-1.234E-006</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>1</v>
@@ -1423,22 +1422,22 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
-        <v>0.001931059</v>
+        <v>-3.647E-006</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0.24072354</v>
+        <v>-8.8327E-005</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>0.2410258</v>
+        <v>-2.7898E-005</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>0.241165312</v>
+        <v>2E-009</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>6.672E-006</v>
+        <v>2.401E-006</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>0.017133046</v>
+        <v>-1.234E-006</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>1</v>
@@ -1446,19 +1445,19 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
-        <v>-0.252759639</v>
+        <v>0.000173611</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>6.672E-006</v>
+        <v>2.401E-006</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>6.672E-006</v>
+        <v>2.401E-006</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>6.672E-006</v>
+        <v>2.401E-006</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>0.253235327</v>
+        <v>-2.402E-006</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>0</v>
@@ -1469,22 +1468,22 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
-        <v>-2.055E-005</v>
+        <v>-7.395E-006</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>0.017133046</v>
+        <v>-1.234E-006</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>0.017133046</v>
+        <v>-1.234E-006</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>0.017133046</v>
+        <v>-1.234E-006</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>0.017136473</v>
+        <v>0</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>1</v>
@@ -1497,7 +1496,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>8.72611999511719E-005</v>
+        <v>8.74996185302734E-005</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,22 +1567,22 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
-        <v>0.055154079</v>
+        <v>-0.017011014</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>-0.003002346</v>
+        <v>0.002857778</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>0.015695937</v>
+        <v>0.003139374</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>0.012081153</v>
+        <v>-7.4638E-005</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>0.014260248</v>
+        <v>0.002372763</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>-0.000927781</v>
+        <v>-0.000155243</v>
       </c>
       <c r="G133" s="0" t="s">
         <v>1</v>
@@ -1624,22 +1623,22 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
-        <v>4.368930332</v>
+        <v>-0.002055683</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0.015431073</v>
+        <v>0.002245693</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>0.005628033</v>
+        <v>0.000612093</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>0.00192661</v>
+        <v>-4.449E-006</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>-0.252547508</v>
+        <v>0.000212131</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>-2.9583E-005</v>
+        <v>-9.033E-006</v>
       </c>
       <c r="G139" s="0" t="s">
         <v>1</v>
@@ -1647,22 +1646,22 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
-        <v>0.015431073</v>
+        <v>0.002245693</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>3.964438074</v>
+        <v>-0.000296188</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>1.515396792</v>
+        <v>-0.00017599</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>0.240635236</v>
+        <v>-8.8304E-005</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>9.606E-006</v>
+        <v>2.934E-006</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>0.017131538</v>
+        <v>-1.508E-006</v>
       </c>
       <c r="G140" s="0" t="s">
         <v>1</v>
@@ -1670,22 +1669,22 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
-        <v>0.005628033</v>
+        <v>0.000612093</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>1.515396792</v>
+        <v>-0.00017599</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>0.836482448</v>
+        <v>-5.5792E-005</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>0.240997905</v>
+        <v>-2.7895E-005</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>9.606E-006</v>
+        <v>2.934E-006</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>0.017131538</v>
+        <v>-1.508E-006</v>
       </c>
       <c r="G141" s="0" t="s">
         <v>1</v>
@@ -1693,22 +1692,22 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
-        <v>0.00192661</v>
+        <v>-4.449E-006</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>0.240635236</v>
+        <v>-8.8304E-005</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>0.240997905</v>
+        <v>-2.7895E-005</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>0.241165315</v>
+        <v>3E-009</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>9.606E-006</v>
+        <v>2.934E-006</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>0.017131538</v>
+        <v>-1.508E-006</v>
       </c>
       <c r="G142" s="0" t="s">
         <v>1</v>
@@ -1716,19 +1715,19 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
-        <v>-0.252547508</v>
+        <v>0.000212131</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>9.606E-006</v>
+        <v>2.934E-006</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>9.606E-006</v>
+        <v>2.934E-006</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>9.606E-006</v>
+        <v>2.934E-006</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>0.253232391</v>
+        <v>-2.936E-006</v>
       </c>
       <c r="F143" s="0" t="n">
         <v>0</v>
@@ -1739,22 +1738,22 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
-        <v>-2.9583E-005</v>
+        <v>-9.033E-006</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>0.017131538</v>
+        <v>-1.508E-006</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>0.017131538</v>
+        <v>-1.508E-006</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>0.017131538</v>
+        <v>-1.508E-006</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>0.017136473</v>
+        <v>0</v>
       </c>
       <c r="G144" s="0" t="s">
         <v>1</v>
@@ -1767,7 +1766,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
-        <v>9.36985015869141E-005</v>
+        <v>0.000104188919067383</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,22 +1837,22 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
-        <v>0.038170346</v>
+        <v>-0.016983733</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>-0.000150452</v>
+        <v>0.002851894</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>0.018829781</v>
+        <v>0.003133844</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>0.012003858</v>
+        <v>-7.7295E-005</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>0.016630432</v>
+        <v>0.002370183</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>-0.001083424</v>
+        <v>-0.000155642</v>
       </c>
       <c r="G158" s="0" t="s">
         <v>1</v>
@@ -1894,22 +1893,22 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
-        <v>4.36656567</v>
+        <v>-0.002364662</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>0.017675575</v>
+        <v>0.002244502</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>0.006239092</v>
+        <v>0.000611059</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>0.001921363</v>
+        <v>-5.246E-006</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>-0.252296893</v>
+        <v>0.000250615</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>-4.0252E-005</v>
+        <v>-1.0669E-005</v>
       </c>
       <c r="G164" s="0" t="s">
         <v>1</v>
@@ -1917,22 +1916,22 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
-        <v>0.017675575</v>
+        <v>0.002244502</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>3.964120202</v>
+        <v>-0.000317872</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>1.515209963</v>
+        <v>-0.000186828</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>0.24054696</v>
+        <v>-8.8276E-005</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>1.3073E-005</v>
+        <v>3.467E-006</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>0.017129756</v>
+        <v>-1.782E-006</v>
       </c>
       <c r="G165" s="0" t="s">
         <v>1</v>
@@ -1940,22 +1939,22 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
-        <v>0.006239092</v>
+        <v>0.000611059</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>1.515209963</v>
+        <v>-0.000186828</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>0.836426663</v>
+        <v>-5.5785E-005</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>0.240970015</v>
+        <v>-2.789E-005</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>1.3073E-005</v>
+        <v>3.467E-006</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>0.017129756</v>
+        <v>-1.782E-006</v>
       </c>
       <c r="G166" s="0" t="s">
         <v>1</v>
@@ -1963,22 +1962,22 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
-        <v>0.001921363</v>
+        <v>-5.246E-006</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>0.24054696</v>
+        <v>-8.8276E-005</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>0.240970015</v>
+        <v>-2.789E-005</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>0.24116532</v>
+        <v>5E-009</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>1.3073E-005</v>
+        <v>3.467E-006</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>0.017129756</v>
+        <v>-1.782E-006</v>
       </c>
       <c r="G167" s="0" t="s">
         <v>1</v>
@@ -1986,19 +1985,19 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
-        <v>-0.252296893</v>
+        <v>0.000250615</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>1.3073E-005</v>
+        <v>3.467E-006</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>1.3073E-005</v>
+        <v>3.467E-006</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>1.3073E-005</v>
+        <v>3.467E-006</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>0.253228922</v>
+        <v>-3.469E-006</v>
       </c>
       <c r="F168" s="0" t="n">
         <v>0</v>
@@ -2009,22 +2008,22 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
-        <v>-4.0252E-005</v>
+        <v>-1.0669E-005</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>0.017129756</v>
+        <v>-1.782E-006</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>0.017129756</v>
+        <v>-1.782E-006</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>0.017129756</v>
+        <v>-1.782E-006</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>0.017136473</v>
+        <v>0</v>
       </c>
       <c r="G169" s="0" t="s">
         <v>1</v>
@@ -2037,7 +2036,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
-        <v>0.000148773193359375</v>
+        <v>0.000115633010864258</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,22 +2107,22 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
-        <v>0.021218547</v>
+        <v>-0.016951799</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>0.002694597</v>
+        <v>0.002845049</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>0.021957343</v>
+        <v>0.003127562</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>0.011923618</v>
+        <v>-8.0241E-005</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>0.018997607</v>
+        <v>0.002367175</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>-0.00123953</v>
+        <v>-0.000156107</v>
       </c>
       <c r="G183" s="0" t="s">
         <v>1</v>
@@ -2164,22 +2163,22 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
-        <v>4.363892649</v>
+        <v>-0.002673021</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>0.019918826</v>
+        <v>0.002243251</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>0.006849083</v>
+        <v>0.000609991</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>0.001915325</v>
+        <v>-6.038E-006</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>-0.252007837</v>
+        <v>0.000289056</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>-5.2553E-005</v>
+        <v>-1.2301E-005</v>
       </c>
       <c r="G189" s="0" t="s">
         <v>1</v>
@@ -2187,22 +2186,22 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
-        <v>0.019918826</v>
+        <v>0.002243251</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>3.963780659</v>
+        <v>-0.000339543</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>1.515012304</v>
+        <v>-0.00019766</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>0.240458716</v>
+        <v>-8.8244E-005</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>1.7071E-005</v>
+        <v>3.998E-006</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>0.0171277</v>
+        <v>-2.056E-006</v>
       </c>
       <c r="G190" s="0" t="s">
         <v>1</v>
@@ -2210,22 +2209,22 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
-        <v>0.006849083</v>
+        <v>0.000609991</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>1.515012304</v>
+        <v>-0.00019766</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>0.836370887</v>
+        <v>-5.5776E-005</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>0.240942131</v>
+        <v>-2.7884E-005</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>1.7071E-005</v>
+        <v>3.998E-006</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>0.0171277</v>
+        <v>-2.056E-006</v>
       </c>
       <c r="G191" s="0" t="s">
         <v>1</v>
@@ -2233,22 +2232,22 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
-        <v>0.001915325</v>
+        <v>-6.038E-006</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>0.240458716</v>
+        <v>-8.8244E-005</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>0.240942131</v>
+        <v>-2.7884E-005</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>0.241165327</v>
+        <v>7E-009</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>1.7071E-005</v>
+        <v>3.998E-006</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>0.0171277</v>
+        <v>-2.056E-006</v>
       </c>
       <c r="G192" s="0" t="s">
         <v>1</v>
@@ -2256,19 +2255,19 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
-        <v>-0.252007837</v>
+        <v>0.000289056</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>1.7071E-005</v>
+        <v>3.998E-006</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>1.7071E-005</v>
+        <v>3.998E-006</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>1.7071E-005</v>
+        <v>3.998E-006</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>0.25322492</v>
+        <v>-4.002E-006</v>
       </c>
       <c r="F193" s="0" t="n">
         <v>0</v>
@@ -2279,22 +2278,22 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
-        <v>-5.2553E-005</v>
+        <v>-1.2301E-005</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0.0171277</v>
+        <v>-2.056E-006</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>0.0171277</v>
+        <v>-2.056E-006</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>0.0171277</v>
+        <v>-2.056E-006</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>0.017136473</v>
+        <v>0</v>
       </c>
       <c r="G194" s="0" t="s">
         <v>1</v>
@@ -2307,7 +2306,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
-        <v>0.000150918960571289</v>
+        <v>0.000142812728881836</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,22 +2377,22 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
-        <v>0.00430332</v>
+        <v>-0.016915228</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>0.005531843</v>
+        <v>0.002837246</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>0.025077874</v>
+        <v>0.003120531</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>0.011840144</v>
+        <v>-8.3473E-005</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>0.021361347</v>
+        <v>0.00236374</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>-0.001396165</v>
+        <v>-0.000156635</v>
       </c>
       <c r="G208" s="0" t="s">
         <v>1</v>
@@ -2434,22 +2433,22 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
-        <v>4.360911973</v>
+        <v>-0.002980677</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>0.022160768</v>
+        <v>0.002241942</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>0.007457973</v>
+        <v>0.00060889</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>0.001908502</v>
+        <v>-6.823E-006</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>-0.251680389</v>
+        <v>0.000327448</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>-6.6483E-005</v>
+        <v>-1.3929E-005</v>
       </c>
       <c r="G214" s="0" t="s">
         <v>1</v>
@@ -2457,22 +2456,22 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
-        <v>0.022160768</v>
+        <v>0.002241942</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>3.963419456</v>
+        <v>-0.000361203</v>
       </c>
       <c r="C215" s="0" t="n">
-        <v>1.514803819</v>
+        <v>-0.000208484</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>0.240370511</v>
+        <v>-8.8206E-005</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>2.1601E-005</v>
+        <v>4.53E-006</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>0.01712537</v>
+        <v>-2.33E-006</v>
       </c>
       <c r="G215" s="0" t="s">
         <v>1</v>
@@ -2480,22 +2479,22 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
-        <v>0.007457973</v>
+        <v>0.00060889</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>1.514803819</v>
+        <v>-0.000208484</v>
       </c>
       <c r="C216" s="0" t="n">
-        <v>0.836315121</v>
+        <v>-5.5766E-005</v>
       </c>
       <c r="D216" s="0" t="n">
-        <v>0.240914253</v>
+        <v>-2.7878E-005</v>
       </c>
       <c r="E216" s="0" t="n">
-        <v>2.1601E-005</v>
+        <v>4.53E-006</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>0.01712537</v>
+        <v>-2.33E-006</v>
       </c>
       <c r="G216" s="0" t="s">
         <v>1</v>
@@ -2503,22 +2502,22 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
-        <v>0.001908502</v>
+        <v>-6.823E-006</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>0.240370511</v>
+        <v>-8.8206E-005</v>
       </c>
       <c r="C217" s="0" t="n">
-        <v>0.240914253</v>
+        <v>-2.7878E-005</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>0.241165337</v>
+        <v>1.1E-008</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>2.1601E-005</v>
+        <v>4.53E-006</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>0.01712537</v>
+        <v>-2.33E-006</v>
       </c>
       <c r="G217" s="0" t="s">
         <v>1</v>
@@ -2526,19 +2525,19 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
-        <v>-0.251680389</v>
+        <v>0.000327448</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>2.1601E-005</v>
+        <v>4.53E-006</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>2.1601E-005</v>
+        <v>4.53E-006</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>2.1601E-005</v>
+        <v>4.53E-006</v>
       </c>
       <c r="E218" s="0" t="n">
-        <v>0.253220385</v>
+        <v>-4.535E-006</v>
       </c>
       <c r="F218" s="0" t="n">
         <v>0</v>
@@ -2549,22 +2548,22 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
-        <v>-6.6483E-005</v>
+        <v>-1.3929E-005</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>0.01712537</v>
+        <v>-2.33E-006</v>
       </c>
       <c r="C219" s="0" t="n">
-        <v>0.01712537</v>
+        <v>-2.33E-006</v>
       </c>
       <c r="D219" s="0" t="n">
-        <v>0.01712537</v>
+        <v>-2.33E-006</v>
       </c>
       <c r="E219" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>0.017136473</v>
+        <v>0</v>
       </c>
       <c r="G219" s="0" t="s">
         <v>1</v>
@@ -2577,7 +2576,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
-        <v>0.000220537185668945</v>
+        <v>0.000160455703735352</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,22 +2647,22 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
-        <v>-0.01257072</v>
+        <v>-0.016874039</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>0.00836033</v>
+        <v>0.002828488</v>
       </c>
       <c r="C233" s="0" t="n">
-        <v>0.028190628</v>
+        <v>0.003112754</v>
       </c>
       <c r="D233" s="0" t="n">
-        <v>0.011753154</v>
+        <v>-8.699E-005</v>
       </c>
       <c r="E233" s="0" t="n">
-        <v>0.023721226</v>
+        <v>0.002359878</v>
       </c>
       <c r="F233" s="0" t="n">
-        <v>-0.001553392</v>
+        <v>-0.000157227</v>
       </c>
       <c r="G233" s="0" t="s">
         <v>1</v>
@@ -2704,22 +2703,22 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
-        <v>4.357624423</v>
+        <v>-0.00328755</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>0.024401341</v>
+        <v>0.002240574</v>
       </c>
       <c r="C239" s="0" t="n">
-        <v>0.008065731</v>
+        <v>0.000607758</v>
       </c>
       <c r="D239" s="0" t="n">
-        <v>0.001900902</v>
+        <v>-7.6E-006</v>
       </c>
       <c r="E239" s="0" t="n">
-        <v>-0.251314605</v>
+        <v>0.000365785</v>
       </c>
       <c r="F239" s="0" t="n">
-        <v>-8.2036E-005</v>
+        <v>-1.5553E-005</v>
       </c>
       <c r="G239" s="0" t="s">
         <v>1</v>
@@ -2727,22 +2726,22 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
-        <v>0.024401341</v>
+        <v>0.002240574</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>3.963036606</v>
+        <v>-0.00038285</v>
       </c>
       <c r="C240" s="0" t="n">
-        <v>1.514584518</v>
+        <v>-0.000219302</v>
       </c>
       <c r="D240" s="0" t="n">
-        <v>0.240282348</v>
+        <v>-8.8163E-005</v>
       </c>
       <c r="E240" s="0" t="n">
-        <v>2.6661E-005</v>
+        <v>5.06E-006</v>
       </c>
       <c r="F240" s="0" t="n">
-        <v>0.017122766</v>
+        <v>-2.604E-006</v>
       </c>
       <c r="G240" s="0" t="s">
         <v>1</v>
@@ -2750,22 +2749,22 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
-        <v>0.008065731</v>
+        <v>0.000607758</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>1.514584518</v>
+        <v>-0.000219302</v>
       </c>
       <c r="C241" s="0" t="n">
-        <v>0.836259368</v>
+        <v>-5.5754E-005</v>
       </c>
       <c r="D241" s="0" t="n">
-        <v>0.240886384</v>
+        <v>-2.7869E-005</v>
       </c>
       <c r="E241" s="0" t="n">
-        <v>2.6661E-005</v>
+        <v>5.06E-006</v>
       </c>
       <c r="F241" s="0" t="n">
-        <v>0.017122766</v>
+        <v>-2.604E-006</v>
       </c>
       <c r="G241" s="0" t="s">
         <v>1</v>
@@ -2773,22 +2772,22 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
-        <v>0.001900902</v>
+        <v>-7.6E-006</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>0.240282348</v>
+        <v>-8.8163E-005</v>
       </c>
       <c r="C242" s="0" t="n">
-        <v>0.240886384</v>
+        <v>-2.7869E-005</v>
       </c>
       <c r="D242" s="0" t="n">
-        <v>0.241165352</v>
+        <v>1.5E-008</v>
       </c>
       <c r="E242" s="0" t="n">
-        <v>2.6661E-005</v>
+        <v>5.06E-006</v>
       </c>
       <c r="F242" s="0" t="n">
-        <v>0.017122766</v>
+        <v>-2.604E-006</v>
       </c>
       <c r="G242" s="0" t="s">
         <v>1</v>
@@ -2796,19 +2795,19 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
-        <v>-0.251314605</v>
+        <v>0.000365785</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>2.6661E-005</v>
+        <v>5.06E-006</v>
       </c>
       <c r="C243" s="0" t="n">
-        <v>2.6661E-005</v>
+        <v>5.06E-006</v>
       </c>
       <c r="D243" s="0" t="n">
-        <v>2.6661E-005</v>
+        <v>5.06E-006</v>
       </c>
       <c r="E243" s="0" t="n">
-        <v>0.253215317</v>
+        <v>-5.068E-006</v>
       </c>
       <c r="F243" s="0" t="n">
         <v>0</v>
@@ -2819,22 +2818,22 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
-        <v>-8.2036E-005</v>
+        <v>-1.5553E-005</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>0.017122766</v>
+        <v>-2.604E-006</v>
       </c>
       <c r="C244" s="0" t="n">
-        <v>0.017122766</v>
+        <v>-2.604E-006</v>
       </c>
       <c r="D244" s="0" t="n">
-        <v>0.017122766</v>
+        <v>-2.604E-006</v>
       </c>
       <c r="E244" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F244" s="0" t="n">
-        <v>0.017136473</v>
+        <v>0</v>
       </c>
       <c r="G244" s="0" t="s">
         <v>1</v>
@@ -2847,7 +2846,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
-        <v>0.000257253646850586</v>
+        <v>0.000224828720092773</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,63 +2856,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.09"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>